--- a/data/orderInfo.xlsx
+++ b/data/orderInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>productOrderName</t>
   </si>
@@ -28,22 +28,22 @@
     <t>productOrderCategory</t>
   </si>
   <si>
-    <t>Pizza</t>
+    <t>productOrderTimestamp</t>
+  </si>
+  <si>
+    <t>Donut</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>red red</t>
+    <t>2025-11-26 17:14:00</t>
+  </si>
+  <si>
+    <t>Coca</t>
   </si>
   <si>
     <t>drink</t>
-  </si>
-  <si>
-    <t>Donut</t>
-  </si>
-  <si>
-    <t>Coca</t>
   </si>
 </sst>
 </file>
@@ -353,13 +353,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,24 +372,30 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1.5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -398,314 +404,9 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1.5</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1.5</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>1.5</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>1.5</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>1.5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>1.5</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>1.5</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>1.5</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>1.5</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>1.5</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>1.5</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>1.5</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>1.5</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>1.5</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>1.5</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/orderInfo.xlsx
+++ b/data/orderInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>productOrderName</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>drink</t>
+  </si>
+  <si>
+    <t>2025-11-27 14:43:21</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-27 </t>
+  </si>
+  <si>
+    <t>2025-11-27 20-16-17</t>
   </si>
 </sst>
 </file>
@@ -353,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,6 +422,74 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1.5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/orderInfo.xlsx
+++ b/data/orderInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>productOrderName</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>2025-11-27 20-16-17</t>
+  </si>
+  <si>
+    <t>2025-11-30 22-23-17</t>
+  </si>
+  <si>
+    <t>red bull</t>
+  </si>
+  <si>
+    <t>2025-11-30 22-27-44</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,6 +499,57 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/orderInfo.xlsx
+++ b/data/orderInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>productOrderName</t>
   </si>
@@ -65,6 +65,39 @@
   </si>
   <si>
     <t>2025-11-30 22-27-44</t>
+  </si>
+  <si>
+    <t>2025-12-01 16-55-12</t>
+  </si>
+  <si>
+    <t>2025-12-01 16-57-52</t>
+  </si>
+  <si>
+    <t>2025-12-01 16-59-39</t>
+  </si>
+  <si>
+    <t>2025-12-01 17-00-26</t>
+  </si>
+  <si>
+    <t>2025-12-01 17-01-18</t>
+  </si>
+  <si>
+    <t>2025-12-01 22-33-50</t>
+  </si>
+  <si>
+    <t>2025-12-02 00-25-01</t>
+  </si>
+  <si>
+    <t>2025-12-02 00-46-11</t>
+  </si>
+  <si>
+    <t>2025-12-02 00-56-38</t>
+  </si>
+  <si>
+    <t>2025-12-02 01-08-01</t>
+  </si>
+  <si>
+    <t>2025-12-02 01-17-43</t>
   </si>
 </sst>
 </file>
@@ -374,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,6 +583,193 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1.25</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1.25</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>1.25</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1.25</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>1.25</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>1.25</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>1.25</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>1.25</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>1.25</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1.25</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>1.25</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/orderInfo.xlsx
+++ b/data/orderInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>productOrderName</t>
   </si>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>2025-12-02 01-17-43</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>2025-12-02 13-26-18</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>2025-12-02 13-50-50</t>
   </si>
 </sst>
 </file>
@@ -407,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -770,6 +785,57 @@
         <v>27</v>
       </c>
     </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>1.5</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>2.5</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/orderInfo.xlsx
+++ b/data/orderInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>productOrderName</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>2025-12-02 13-50-50</t>
+  </si>
+  <si>
+    <t>2025-12-02 15-50-17</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -836,6 +839,23 @@
         <v>32</v>
       </c>
     </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>1.5</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
